--- a/Unity/Assets/Config/Excel/ItemConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemConfig.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F10"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
